--- a/AugerLogs/DB8/DB8_3_Texture.xlsx
+++ b/AugerLogs/DB8/DB8_3_Texture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarkLundineSurface\CarolinaBaySedimentology\DB8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarkLundineSurface\CarolinaBaySedimentology\AugerLogs\DB8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE4D4C68-1F9F-4F86-A19B-CE12E386AA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD9A4E6-D45F-43CC-9162-8C60A445F174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="4583" windowWidth="15000" windowHeight="10522" xr2:uid="{A70EA506-4588-417D-BDC7-A369BA5E845E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{A70EA506-4588-417D-BDC7-A369BA5E845E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D9"/>
+      <selection activeCell="C2" sqref="C2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -451,10 +451,10 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>7.8446782808656752E-3</v>
+        <v>8.8123732914786417E-3</v>
       </c>
       <c r="D2">
-        <v>0.78446782808656756</v>
+        <v>0.88123732914786412</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -465,10 +465,10 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>2.1001615508885293E-2</v>
+        <v>2.3592309201491066E-2</v>
       </c>
       <c r="D3">
-        <v>2.1001615508885294</v>
+        <v>2.3592309201491064</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -479,10 +479,10 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>0.4106157854138468</v>
+        <v>0.46126806618272187</v>
       </c>
       <c r="D4">
-        <v>41.061578541384677</v>
+        <v>46.126806618272184</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -493,10 +493,10 @@
         <v>250</v>
       </c>
       <c r="C5">
-        <v>0.40189785908687359</v>
+        <v>0.45147472369367597</v>
       </c>
       <c r="D5">
-        <v>40.189785908687355</v>
+        <v>45.147472369367598</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -507,10 +507,10 @@
         <v>180</v>
       </c>
       <c r="C6">
-        <v>3.5279221062742866E-2</v>
+        <v>3.9631155581714726E-2</v>
       </c>
       <c r="D6">
-        <v>3.5279221062742865</v>
+        <v>3.9631155581714728</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -521,10 +521,10 @@
         <v>125</v>
       </c>
       <c r="C7">
-        <v>9.6930533117932198E-3</v>
+        <v>1.0888758092995885E-2</v>
       </c>
       <c r="D7">
-        <v>0.96930533117932194</v>
+        <v>1.0888758092995885</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -535,10 +535,10 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>3.3474508434120772E-3</v>
+        <v>3.7603819240075932E-3</v>
       </c>
       <c r="D8">
-        <v>0.3347450843412077</v>
+        <v>0.37603819240075931</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>5.0939469356270849E-4</v>
+        <v>5.7223203191420022E-4</v>
       </c>
       <c r="D9">
-        <v>5.0939469356270847E-2</v>
+        <v>5.7223203191420019E-2</v>
       </c>
     </row>
   </sheetData>
